--- a/medicine/Psychotrope/Vermentino/Vermentino.xlsx
+++ b/medicine/Psychotrope/Vermentino/Vermentino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le vermentino est un cépage blanc italien[1].
-En Italie, le Vermentino B peut officiellement être désigné par les noms "Favorita" et "Pigato". En France, il porte le nom de rolle B (en Provence) ou de Vermentinu B (en Corse) ou encore Garbesso B[2].
+Le vermentino est un cépage blanc italien.
+En Italie, le Vermentino B peut officiellement être désigné par les noms "Favorita" et "Pigato". En France, il porte le nom de rolle B (en Provence) ou de Vermentinu B (en Corse) ou encore Garbesso B.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Origines et Répartition Géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Pierre Galet[3], il serait issu de la Malvoisie, passé du vignoble de Madère en Espagne. De là, il aurait conquis la Corse et la Sardaigne avant d'arriver en Italie[4] (Ligurie). Cette théorie est cependant en contradiction avec des documents mentionnant ce cépage en Ligurie dès le XIVe siècle (sous le nom d'Arratelau), alors que les Portugais n'arrivèrent à Madère qu'au 15ème.[réf. nécessaire]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Pierre Galet, il serait issu de la Malvoisie, passé du vignoble de Madère en Espagne. De là, il aurait conquis la Corse et la Sardaigne avant d'arriver en Italie (Ligurie). Cette théorie est cependant en contradiction avec des documents mentionnant ce cépage en Ligurie dès le XIVe siècle (sous le nom d'Arratelau), alors que les Portugais n'arrivèrent à Madère qu'au 15ème.[réf. nécessaire]
 Plus vraisemblablement, vu sa parenté avec la Malvoisie, ce cépage aurait été rapporté de Grèce en Italie par les marchands vénitiens.
-Aujourd'hui, ce cépage est cultivé essentiellement en Italie (Ligurie, Sardaigne et Toscane), où il représentait environ 3 900 hectares en 1999, mais aussi de plus en plus en France (Corse, Provence, et Languedoc)[5].
-En Corse, ce cépage est utilisé pour la fabrication du vin blanc Patrimonio en monocépage, et entre aussi dans la composition des blancs des AOC d'Ajaccio et de Calvi[6].
+Aujourd'hui, ce cépage est cultivé essentiellement en Italie (Ligurie, Sardaigne et Toscane), où il représentait environ 3 900 hectares en 1999, mais aussi de plus en plus en France (Corse, Provence, et Languedoc).
+En Corse, ce cépage est utilisé pour la fabrication du vin blanc Patrimonio en monocépage, et entre aussi dans la composition des blancs des AOC d'Ajaccio et de Calvi.
 En Sardaigne, il est à la base de la DOCG Vermentino di Gallura.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Caractéristiques ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grappes moyennes à grosses.
 baies moyennes, légèrement ellipsoïdes, blanches devenant rosées à sur-maturité.</t>
@@ -581,13 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-C'est un cépage vigoureux, mais assez sensible au vent. Il se plaît dans des régions chaudes, sur un terrain sec et peu fertile. Il assure une production régulière.
-Sensibilité aux maladies
-Il craint l'oïdium, et dans une moindre mesure la pourriture grise après véraison[5] ; il doit donc être taillé court.
-Qualités œnologiques
-Ses arômes puissants libèrent des parfums d’aubépine, d’amande et de pomme. Il apporte qualité et personnalité aux vins blancs. Associé aux cépages rouges, il donne naissance à des rosés pleins de charme.
-Il donne des vins frais délicats et légèrement aromatiques[7] de belle couleur pâle et de qualité, généralement bien équilibrés, gras mais manquant parfois d'acidité.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage vigoureux, mais assez sensible au vent. Il se plaît dans des régions chaudes, sur un terrain sec et peu fertile. Il assure une production régulière.
 </t>
         </is>
       </c>
@@ -613,10 +629,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il craint l'oïdium, et dans une moindre mesure la pourriture grise après véraison ; il doit donc être taillé court.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vermentino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermentino</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Qualités œnologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses arômes puissants libèrent des parfums d’aubépine, d’amande et de pomme. Il apporte qualité et personnalité aux vins blancs. Associé aux cépages rouges, il donne naissance à des rosés pleins de charme.
+Il donne des vins frais délicats et légèrement aromatiques de belle couleur pâle et de qualité, généralement bien équilibrés, gras mais manquant parfois d'acidité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vermentino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vermentino</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cet article est partiellement ou en totalité issu de l'article intitulé « Rolle (cépage) » (voir la liste des auteurs).</t>
         </is>
